--- a/Consolidated_Survey_Response.xlsx
+++ b/Consolidated_Survey_Response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.I.P\cmpe257-CrossDomainRecommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E302AE8-35BE-4CB6-89E1-29206293E6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFC36A-D5E7-4095-A20A-A2421D5A8DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{74DBDBFC-3A48-450B-A011-93C7FEAA0017}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>Books</t>
-  </si>
-  <si>
     <t>Selections from Harry Potter and the Order of the Phoenix: Piano Solos</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Actual_Rating</t>
+  </si>
+  <si>
+    <t>book_title</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D62D58F-79C2-4323-980D-A4FA77201A61}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>3.5</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>4.4000000000000004</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>3.3</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>4.2</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>3.8</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>4.8</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -918,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>2.5</v>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>3.5</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>2.5</v>
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>3.5</v>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39">
         <v>3.5</v>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>2.57</v>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>3.8</v>
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <v>4.25</v>
@@ -1061,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1083,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1105,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>3.3</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>4.26</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1149,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>4.68</v>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1182,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>4.9800000000000004</v>
@@ -1193,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>4.2</v>
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>3.8</v>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1237,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>4.4000000000000004</v>
@@ -1248,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62">
         <v>4.4000000000000004</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>4.7</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>3.9</v>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>4.3</v>
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>3.5</v>
@@ -1336,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1347,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>3.5</v>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1380,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1413,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76">
         <v>2.5</v>
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C77">
         <v>3.5</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>3.5</v>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1468,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>2.75</v>
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83">
         <v>4.5</v>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85">
         <v>4.76</v>
@@ -1523,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C88">
         <v>2.89</v>
@@ -1556,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>4.8</v>
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>3.4</v>
@@ -1578,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>2.2999999999999998</v>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93">
         <v>3.5</v>
@@ -1611,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95">
         <v>4.8</v>
@@ -1633,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96">
         <v>3.5</v>
@@ -1644,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97">
         <v>4.3</v>
@@ -1655,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C98">
         <v>2.7</v>
@@ -1666,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C99">
         <v>4.5</v>
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100">
         <v>3</v>

--- a/Consolidated_Survey_Response.xlsx
+++ b/Consolidated_Survey_Response.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.I.P\cmpe257-CrossDomainRecommendation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.I.P\cmpe257-CrossDomainRecommendation_Saliha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFC36A-D5E7-4095-A20A-A2421D5A8DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDC2B5A-7212-487D-B524-447294D087C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{74DBDBFC-3A48-450B-A011-93C7FEAA0017}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
     <t>Selections from Harry Potter and the Order of the Phoenix: Piano Solos</t>
   </si>
   <si>
@@ -192,10 +189,13 @@
     <t>National Lampoon: 1964 High School Yearbook: 39th Reunion Edition</t>
   </si>
   <si>
-    <t>Actual_Rating</t>
-  </si>
-  <si>
     <t>book_title</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>actual_rating</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D62D58F-79C2-4323-980D-A4FA77201A61}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -585,13 +585,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>3.5</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>4.4000000000000004</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3.3</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>4.2</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>3.8</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>4.8</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -918,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>2.5</v>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>3.5</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>2.5</v>
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>3.5</v>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>3.5</v>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>2.57</v>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>3.8</v>
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>4.25</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1083,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>3.2</v>
@@ -1116,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>3.3</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>4.26</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1149,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>4.68</v>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1182,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>4.9800000000000004</v>
@@ -1193,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>4.2</v>
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58">
         <v>3.8</v>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1237,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>4.4000000000000004</v>
@@ -1248,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>4.4000000000000004</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>4.7</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>3.9</v>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>4.3</v>
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>3.5</v>
@@ -1336,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1347,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>3.5</v>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1380,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1413,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76">
         <v>2.5</v>
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77">
         <v>3.5</v>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>3.5</v>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1468,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81">
         <v>2.75</v>
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>4.5</v>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85">
         <v>4.76</v>
@@ -1523,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88">
         <v>2.89</v>
@@ -1556,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>4.8</v>
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>3.4</v>
@@ -1578,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>2.2999999999999998</v>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>3.5</v>
@@ -1611,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95">
         <v>4.8</v>
@@ -1633,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96">
         <v>3.5</v>
@@ -1644,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97">
         <v>4.3</v>
@@ -1655,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C98">
         <v>2.7</v>
@@ -1666,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C99">
         <v>4.5</v>
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100">
         <v>3</v>
